--- a/com.sevenmart/src/main/resources/ExcelFiles/loginData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/loginData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F118D01E-2893-4D61-A43A-9C00F927605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E501B354-8751-47A1-A4D2-47A6C082229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{3EFCBF0D-6915-4D52-B160-E2347A3057A2}"/>
+    <workbookView xWindow="4871" yWindow="2216" windowWidth="18031" windowHeight="9304" activeTab="1" xr2:uid="{3EFCBF0D-6915-4D52-B160-E2347A3057A2}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="profileNameDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>ajkdjdjhk</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88570174-FDC4-4D0B-88DC-DD95C60385BA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -422,12 +425,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749676D4-4A1C-477D-99DA-931B962A3E0D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>